--- a/01_data-input/wiiw/population.xlsx
+++ b/01_data-input/wiiw/population.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{698F5317-27B9-4FEA-892F-18F238401781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -35,7 +40,7 @@
     <t>Extracted on:</t>
   </si>
   <si>
-    <t>2024-04-08 19:41:09</t>
+    <t>2024-04-19 13:47:37</t>
   </si>
   <si>
     <t>Country-Code</t>
@@ -56,10 +61,10 @@
     <t>Sources</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Albania</t>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>Population total</t>
@@ -68,24 +73,30 @@
     <t>th persons, period average</t>
   </si>
   <si>
-    <t>From 2001 according to census October 2011, census April 2001 before.</t>
-  </si>
-  <si>
-    <t>Institute of Statistics of Albania</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>From 2013 according to census October 2013, census 1991 before.</t>
   </si>
   <si>
     <t>Agency of Statistics of Bosnia and Herzegovina</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>th persons, end of period</t>
+  </si>
+  <si>
+    <t>Life expectancy, males</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Life expectancy, females</t>
+  </si>
+  <si>
     <t>XK</t>
   </si>
   <si>
@@ -108,66 +119,6 @@
   </si>
   <si>
     <t>National Bureau of Statistics of Moldova</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>According to census April 2011.</t>
-  </si>
-  <si>
-    <t>Statistical Office of Montenegro</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>From 2002 according to census November 2002, from 2021 according to census September 2021.</t>
-  </si>
-  <si>
-    <t>State Statistical Office of North Macedonia</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>According to census March 2002, from 2011 according to census October 2011, from 2022 according to census October 2022. 1995-1998 including Kosovo and Metohija.</t>
-  </si>
-  <si>
-    <t>Statistical Office of Serbia</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>From 2000 based on census 2000 (census 1990 before); from 2011 according to registered-based data.</t>
-  </si>
-  <si>
-    <t>Turkish Statistical Institute</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>From 1995 according to census December 2001 - valid for all population series. From 2014 excluding the occupied territories of Crimea and Sevastopol.</t>
-  </si>
-  <si>
-    <t>State Statistics Service of Ukraine</t>
   </si>
   <si>
     <t>Source:</t>
@@ -179,52 +130,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
@@ -235,43 +171,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,58 +498,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AE18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.96" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.24" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.664481" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="24.996512" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="26" customWidth="true" style="0"/>
-    <col min="6" max="6" width="43.660575" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8" customWidth="true" style="0"/>
-    <col min="15" max="15" width="8" customWidth="true" style="0"/>
-    <col min="16" max="16" width="8" customWidth="true" style="0"/>
-    <col min="17" max="17" width="8" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8" customWidth="true" style="0"/>
-    <col min="19" max="19" width="8" customWidth="true" style="0"/>
-    <col min="20" max="20" width="8" customWidth="true" style="0"/>
-    <col min="21" max="21" width="8" customWidth="true" style="0"/>
-    <col min="22" max="22" width="8" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" customWidth="true" style="0"/>
-    <col min="25" max="25" width="8" customWidth="true" style="0"/>
-    <col min="26" max="26" width="8" customWidth="true" style="0"/>
-    <col min="27" max="27" width="8" customWidth="true" style="0"/>
-    <col min="28" max="28" width="8" customWidth="true" style="0"/>
-    <col min="29" max="29" width="8" customWidth="true" style="0"/>
-    <col min="30" max="30" width="8" customWidth="true" style="0"/>
-    <col min="31" max="31" width="8" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="41" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -620,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -628,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -636,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -656,79 +566,109 @@
         <v>12</v>
       </c>
       <c r="G6" s="2">
+        <v>1990</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1991</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1992</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1993</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1994</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1995</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1996</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1997</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1998</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1999</v>
+      </c>
+      <c r="Q6" s="2">
         <v>2000</v>
       </c>
-      <c r="H6" s="2">
+      <c r="R6" s="2">
         <v>2001</v>
       </c>
-      <c r="I6" s="2">
+      <c r="S6" s="2">
         <v>2002</v>
       </c>
-      <c r="J6" s="2">
+      <c r="T6" s="2">
         <v>2003</v>
       </c>
-      <c r="K6" s="2">
+      <c r="U6" s="2">
         <v>2004</v>
       </c>
-      <c r="L6" s="2">
+      <c r="V6" s="2">
         <v>2005</v>
       </c>
-      <c r="M6" s="2">
+      <c r="W6" s="2">
         <v>2006</v>
       </c>
-      <c r="N6" s="2">
+      <c r="X6" s="2">
         <v>2007</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Y6" s="2">
         <v>2008</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Z6" s="2">
         <v>2009</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="AA6" s="2">
         <v>2010</v>
       </c>
-      <c r="R6" s="2">
+      <c r="AB6" s="2">
         <v>2011</v>
       </c>
-      <c r="S6" s="2">
+      <c r="AC6" s="2">
         <v>2012</v>
       </c>
-      <c r="T6" s="2">
+      <c r="AD6" s="2">
         <v>2013</v>
       </c>
-      <c r="U6" s="2">
+      <c r="AE6" s="2">
         <v>2014</v>
       </c>
-      <c r="V6" s="2">
+      <c r="AF6" s="2">
         <v>2015</v>
       </c>
-      <c r="W6" s="2">
+      <c r="AG6" s="2">
         <v>2016</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AH6" s="2">
         <v>2017</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AI6" s="2">
         <v>2018</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AJ6" s="2">
         <v>2019</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AK6" s="2">
         <v>2020</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AL6" s="2">
         <v>2021</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AM6" s="2">
         <v>2022</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AN6" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -747,361 +687,481 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3">
-        <v>3060.908</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3060.173</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3051.01</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3039.616</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3026.939</v>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L7" s="3">
-        <v>3011.487</v>
+        <v>3659.873</v>
       </c>
       <c r="M7" s="3">
-        <v>2992.547</v>
+        <v>3645</v>
       </c>
       <c r="N7" s="3">
-        <v>2970.017</v>
+        <v>3738</v>
       </c>
       <c r="O7" s="3">
-        <v>2947.314</v>
+        <v>3653</v>
       </c>
       <c r="P7" s="3">
-        <v>2927.519</v>
+        <v>3725</v>
       </c>
       <c r="Q7" s="3">
-        <v>2913.021</v>
+        <v>3781</v>
       </c>
       <c r="R7" s="3">
-        <v>2905.195</v>
+        <v>3798</v>
       </c>
       <c r="S7" s="3">
-        <v>2900.401</v>
+        <v>3828</v>
       </c>
       <c r="T7" s="3">
-        <v>2895.092</v>
+        <v>3832</v>
       </c>
       <c r="U7" s="3">
-        <v>2889.104</v>
+        <v>3842</v>
       </c>
       <c r="V7" s="3">
-        <v>2880.703</v>
+        <v>3843</v>
       </c>
       <c r="W7" s="3">
-        <v>2876.101</v>
+        <v>3842.7620000000002</v>
       </c>
       <c r="X7" s="3">
-        <v>2873.457</v>
+        <v>3842.942</v>
       </c>
       <c r="Y7" s="3">
-        <v>2866.376</v>
+        <v>3842.2649999999999</v>
       </c>
       <c r="Z7" s="3">
-        <v>2854.191</v>
+        <v>3843</v>
       </c>
       <c r="AA7" s="3">
-        <v>2837.849</v>
+        <v>3843.1260000000002</v>
       </c>
       <c r="AB7" s="3">
-        <v>2811.666</v>
+        <v>3839.7370000000001</v>
       </c>
       <c r="AC7" s="3">
-        <v>2777.689</v>
+        <v>3836.377</v>
       </c>
       <c r="AD7" s="3">
-        <v>2745</v>
+        <v>3531.1590000000001</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>3526</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>3518</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>3511</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>3504</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>3496</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>3491</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>3475</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>3453</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>3434</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>3410</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3652.4369999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3691.5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3695.5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3689</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3753</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3789.5</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3813</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3830</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3837</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3842.5</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3842.8809999999999</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3842.8519999999999</v>
+      </c>
+      <c r="X8" s="3">
+        <v>3842.6039999999998</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3842.6329999999998</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>3843.0630000000001</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>3841.4319999999998</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>3838.0569999999998</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>3833.9659999999999</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>3528.58</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>3522</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>3514.5</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>3507.5</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>3493.5</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>3483</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>3464</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>3443.5</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>3420</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3">
-        <v>3781</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3798</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3828</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3832</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3842</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3843</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3842.762</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3842.942</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3842.265</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3843</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3843.126</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3839.737</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3836.377</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3531.159</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3526</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3518</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3511</v>
-      </c>
-      <c r="X8" s="3">
-        <v>3504</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>3496</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>3491</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3475</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>3453</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>3434</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>3410</v>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>64.2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="S9" s="3">
+        <v>65</v>
+      </c>
+      <c r="T9" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="U9" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="V9" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="W9" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="X9" s="3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>70</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="P10" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="R10" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="T10" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="U10" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="V10" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="W10" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="X10" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B11" t="s">
         <v>26</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1588</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1589</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1590</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1591</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1592.024</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1622.239</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1651.011</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1678.355</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1719.575</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1747.359</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1775</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1796.413</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1807.126</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1818.119</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1812.788</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1788.274</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1777.568</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1791.019</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>1797.086</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1788.891</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1790.152</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>1786.079</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>1768.096</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3639.592</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3631.462</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3623.062</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3612.874</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3603.945</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3595.187</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3585.209</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3576.91</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3570.108</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3565.604</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3562.045</v>
-      </c>
-      <c r="R10" s="3">
-        <v>3559.986</v>
-      </c>
-      <c r="S10" s="3">
-        <v>3559.519</v>
-      </c>
-      <c r="T10" s="3">
-        <v>3558.566</v>
-      </c>
-      <c r="U10" s="3">
-        <v>3556.397</v>
-      </c>
-      <c r="V10" s="3">
-        <v>2835.978</v>
-      </c>
-      <c r="W10" s="3">
-        <v>2803.186</v>
-      </c>
-      <c r="X10" s="3">
-        <v>2755.189</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>2707.203</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>2664.224</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>2635.13</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>2595.809</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>2538.894</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1110,182 +1170,242 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3">
-        <v>604.5700000000001</v>
-      </c>
-      <c r="H11" s="3">
-        <v>607.224</v>
-      </c>
-      <c r="I11" s="3">
-        <v>609.485</v>
-      </c>
-      <c r="J11" s="3">
-        <v>611.362</v>
-      </c>
-      <c r="K11" s="3">
-        <v>612.817</v>
-      </c>
-      <c r="L11" s="3">
-        <v>613.265</v>
-      </c>
-      <c r="M11" s="3">
-        <v>613.867</v>
-      </c>
-      <c r="N11" s="3">
-        <v>615.0839999999999</v>
-      </c>
-      <c r="O11" s="3">
-        <v>616.35</v>
-      </c>
-      <c r="P11" s="3">
-        <v>618.079</v>
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q11" s="3">
-        <v>619.426</v>
+        <v>1588</v>
       </c>
       <c r="R11" s="3">
-        <v>620.079</v>
+        <v>1589</v>
       </c>
       <c r="S11" s="3">
-        <v>620.601</v>
+        <v>1590</v>
       </c>
       <c r="T11" s="3">
-        <v>621.207</v>
+        <v>1591</v>
       </c>
       <c r="U11" s="3">
-        <v>621.8099999999999</v>
+        <v>1592.0239999999999</v>
       </c>
       <c r="V11" s="3">
-        <v>622.159</v>
+        <v>1622.239</v>
       </c>
       <c r="W11" s="3">
-        <v>622.303</v>
+        <v>1651.011</v>
       </c>
       <c r="X11" s="3">
-        <v>622.373</v>
+        <v>1678.355</v>
       </c>
       <c r="Y11" s="3">
-        <v>622.227</v>
+        <v>1719.575</v>
       </c>
       <c r="Z11" s="3">
-        <v>622.028</v>
+        <v>1747.3589999999999</v>
       </c>
       <c r="AA11" s="3">
-        <v>621.306</v>
+        <v>1775</v>
       </c>
       <c r="AB11" s="3">
-        <v>619.211</v>
+        <v>1796.413</v>
       </c>
       <c r="AC11" s="3">
-        <v>617.213</v>
+        <v>1807.126</v>
       </c>
       <c r="AD11" s="3">
-        <v>615</v>
+        <v>1818.1189999999999</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1812.788</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>1788.2739999999999</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>1777.568</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>1791.019</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>1797.086</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>1788.8910000000001</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>1790.152</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>1786.079</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>1768.096</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>1775</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2026.35</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2034.88</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2020.157</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2026.773</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2032.544</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2036.855</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2040.228</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2043.559</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2046.898</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2050.671</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q12" s="3">
-        <v>2055.004</v>
+        <v>1588.5</v>
       </c>
       <c r="R12" s="3">
-        <v>2058.539</v>
+        <v>1589.5</v>
       </c>
       <c r="S12" s="3">
-        <v>2061.044</v>
+        <v>1590.5</v>
       </c>
       <c r="T12" s="3">
-        <v>2064.032</v>
+        <v>1591.5</v>
       </c>
       <c r="U12" s="3">
-        <v>2067.471</v>
+        <v>1607.1320000000001</v>
       </c>
       <c r="V12" s="3">
-        <v>2070.226</v>
+        <v>1636.625</v>
       </c>
       <c r="W12" s="3">
-        <v>2072.49</v>
+        <v>1664.683</v>
       </c>
       <c r="X12" s="3">
-        <v>2074.502</v>
+        <v>1698.9649999999999</v>
       </c>
       <c r="Y12" s="3">
-        <v>2076.217</v>
+        <v>1733.4670000000001</v>
       </c>
       <c r="Z12" s="3">
-        <v>2076.694</v>
+        <v>1761.18</v>
       </c>
       <c r="AA12" s="3">
-        <v>2072.532</v>
+        <v>1788.4169999999999</v>
       </c>
       <c r="AB12" s="3">
-        <v>1837.114</v>
+        <v>1798.645</v>
       </c>
       <c r="AC12" s="3">
-        <v>1831.712</v>
+        <v>1815.606</v>
       </c>
       <c r="AD12" s="3">
-        <v>1822</v>
+        <v>1820.6310000000001</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1804.944</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1771.604</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>1783.5309999999999</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>1798.5060000000001</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1795.6659999999999</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>1782.115</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>1798.1859999999999</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>1773.971</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>1762.22</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>1787.78</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1294,296 +1414,498 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3">
-        <v>7516.34122661738</v>
+        <v>4361.7340000000004</v>
       </c>
       <c r="H13" s="3">
-        <v>7503.433</v>
+        <v>4360.4750000000004</v>
       </c>
       <c r="I13" s="3">
-        <v>7500.031</v>
+        <v>4351.2250000000004</v>
       </c>
       <c r="J13" s="3">
-        <v>7480.591</v>
+        <v>4348.0870000000004</v>
       </c>
       <c r="K13" s="3">
-        <v>7463.157</v>
+        <v>4348.085</v>
       </c>
       <c r="L13" s="3">
-        <v>7440.769</v>
+        <v>4338.7790000000005</v>
       </c>
       <c r="M13" s="3">
-        <v>7411.569</v>
+        <v>4324.6959999999999</v>
       </c>
       <c r="N13" s="3">
-        <v>7381.579</v>
+        <v>3654.2080000000001</v>
       </c>
       <c r="O13" s="3">
-        <v>7350.222</v>
+        <v>3652.732</v>
       </c>
       <c r="P13" s="3">
-        <v>7320.807</v>
+        <v>3647.0010000000002</v>
       </c>
       <c r="Q13" s="3">
-        <v>7291.436</v>
+        <v>3639.5920000000001</v>
       </c>
       <c r="R13" s="3">
-        <v>7236.519</v>
+        <v>3631.462</v>
       </c>
       <c r="S13" s="3">
-        <v>7201.497</v>
+        <v>3623.0619999999999</v>
       </c>
       <c r="T13" s="3">
-        <v>7166.553</v>
+        <v>3612.8739999999998</v>
       </c>
       <c r="U13" s="3">
-        <v>7131.787</v>
+        <v>3603.9450000000002</v>
       </c>
       <c r="V13" s="3">
-        <v>7095.383</v>
+        <v>3595.1869999999999</v>
       </c>
       <c r="W13" s="3">
-        <v>7058.322</v>
+        <v>3585.2089999999998</v>
       </c>
       <c r="X13" s="3">
-        <v>7020.858</v>
+        <v>3576.91</v>
       </c>
       <c r="Y13" s="3">
-        <v>6982.604</v>
+        <v>3570.1080000000002</v>
       </c>
       <c r="Z13" s="3">
-        <v>6945.235</v>
+        <v>3565.6039999999998</v>
       </c>
       <c r="AA13" s="3">
-        <v>6899.126</v>
+        <v>3562.0450000000001</v>
       </c>
       <c r="AB13" s="3">
-        <v>6834.326</v>
+        <v>3559.9859999999999</v>
       </c>
       <c r="AC13" s="3">
-        <v>6664.449</v>
+        <v>3559.5189999999998</v>
       </c>
       <c r="AD13" s="3">
-        <v>6614</v>
+        <v>3558.5659999999998</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>3556.3969999999999</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>2835.9780000000001</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>2803.1860000000001</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>2755.1889999999999</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>2707.203</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>2664.2240000000002</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>2635.13</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>2595.8090000000002</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>2538.8939999999998</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>2580</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3">
-        <v>64300</v>
+        <v>4364.0770000000002</v>
       </c>
       <c r="H14" s="3">
-        <v>65166.331</v>
+        <v>4356.8770000000004</v>
       </c>
       <c r="I14" s="3">
-        <v>66002.50599999999</v>
+        <v>4345.5770000000002</v>
       </c>
       <c r="J14" s="3">
-        <v>66794.55100000001</v>
+        <v>4350.4849999999997</v>
       </c>
       <c r="K14" s="3">
-        <v>67598.736</v>
+        <v>4345.6850000000004</v>
       </c>
       <c r="L14" s="3">
-        <v>68435.38</v>
+        <v>4331.87</v>
       </c>
       <c r="M14" s="3">
-        <v>69295.253</v>
+        <v>4317.5129999999999</v>
       </c>
       <c r="N14" s="3">
-        <v>70158.11199999999</v>
+        <v>3655.614</v>
       </c>
       <c r="O14" s="3">
-        <v>71051.678</v>
+        <v>3649.93</v>
       </c>
       <c r="P14" s="3">
-        <v>72039.20600000001</v>
+        <v>3644.07</v>
       </c>
       <c r="Q14" s="3">
-        <v>73142.14999999999</v>
+        <v>3635.1120000000001</v>
       </c>
       <c r="R14" s="3">
-        <v>74223.629</v>
+        <v>3627.8119999999999</v>
       </c>
       <c r="S14" s="3">
-        <v>75175.827</v>
+        <v>3618.3119999999999</v>
       </c>
       <c r="T14" s="3">
-        <v>76147.624</v>
+        <v>3607.4349999999999</v>
       </c>
       <c r="U14" s="3">
-        <v>77181.88400000001</v>
+        <v>3600.4360000000001</v>
       </c>
       <c r="V14" s="3">
-        <v>78218.47900000001</v>
+        <v>3589.9360000000001</v>
       </c>
       <c r="W14" s="3">
-        <v>79278</v>
+        <v>3581.11</v>
       </c>
       <c r="X14" s="3">
-        <v>80312.698</v>
+        <v>3572.703</v>
       </c>
       <c r="Y14" s="3">
-        <v>81407.2035</v>
+        <v>3567.5120000000002</v>
       </c>
       <c r="Z14" s="3">
-        <v>82579.43949999999</v>
+        <v>3563.6950000000002</v>
       </c>
       <c r="AA14" s="3">
-        <v>83384.6795</v>
+        <v>3560.43</v>
       </c>
       <c r="AB14" s="3">
-        <v>84147.3175</v>
+        <v>3559.5410000000002</v>
       </c>
       <c r="AC14" s="3">
-        <v>84979.913</v>
+        <v>3559.4969999999998</v>
       </c>
       <c r="AD14" s="3">
-        <v>85326</v>
+        <v>3557.634</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>3555.1590000000001</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>2825.6280000000002</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>2780.7440000000001</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>2729.634</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>2684.7719999999999</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>2643.6750000000002</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>2626.5880000000002</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>2565.0300000000002</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>2512.7579999999998</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>2650</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3">
-        <v>49176.5</v>
+        <v>63.86</v>
       </c>
       <c r="H15" s="3">
-        <v>48672.8</v>
+        <v>64.28</v>
       </c>
       <c r="I15" s="3">
-        <v>48202.5</v>
+        <v>63.86</v>
       </c>
       <c r="J15" s="3">
-        <v>47812.95</v>
+        <v>63.94</v>
       </c>
       <c r="K15" s="3">
-        <v>47451.6</v>
+        <v>62.29</v>
       </c>
       <c r="L15" s="3">
-        <v>47105.2</v>
+        <v>61.84</v>
       </c>
       <c r="M15" s="3">
-        <v>46787.8</v>
+        <v>62.87</v>
       </c>
       <c r="N15" s="3">
-        <v>46509.4</v>
+        <v>62.86</v>
       </c>
       <c r="O15" s="3">
-        <v>46258.2</v>
+        <v>64.03</v>
       </c>
       <c r="P15" s="3">
-        <v>46053.3</v>
+        <v>63.74</v>
       </c>
       <c r="Q15" s="3">
-        <v>45870.7</v>
+        <v>63.87</v>
       </c>
       <c r="R15" s="3">
-        <v>45706.1</v>
+        <v>64.5</v>
       </c>
       <c r="S15" s="3">
-        <v>45593.3</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="T15" s="3">
-        <v>45489.6</v>
+        <v>64.47</v>
       </c>
       <c r="U15" s="3">
-        <v>43001.209</v>
+        <v>64.5</v>
       </c>
       <c r="V15" s="3">
-        <v>42844.907</v>
+        <v>63.84</v>
       </c>
       <c r="W15" s="3">
-        <v>42672.529</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="X15" s="3">
-        <v>42485.4729999999</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="Y15" s="3">
-        <v>42269.802</v>
+        <v>65.55</v>
       </c>
       <c r="Z15" s="3">
-        <v>42027.809</v>
+        <v>65.31</v>
       </c>
       <c r="AA15" s="3">
-        <v>41745.385</v>
+        <v>65</v>
       </c>
       <c r="AB15" s="3">
-        <v>41377.845</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="AC15" s="3">
-        <v>35000</v>
+        <v>67.239999999999995</v>
       </c>
       <c r="AD15" s="3">
-        <v>36700</v>
+        <v>68.05</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>67.5</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>66</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3">
+        <v>71.92</v>
+      </c>
+      <c r="H16" s="3">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="I16" s="3">
+        <v>71.92</v>
+      </c>
+      <c r="J16" s="3">
+        <v>70.87</v>
+      </c>
+      <c r="K16" s="3">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="L16" s="3">
+        <v>69.66</v>
+      </c>
+      <c r="M16" s="3">
+        <v>70.38</v>
+      </c>
+      <c r="N16" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="O16" s="3">
+        <v>71.39</v>
+      </c>
+      <c r="P16" s="3">
+        <v>71.040000000000006</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>71.22</v>
+      </c>
+      <c r="R16" s="3">
+        <v>71.75</v>
+      </c>
+      <c r="S16" s="3">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="T16" s="3">
+        <v>71.64</v>
+      </c>
+      <c r="U16" s="3">
+        <v>72.16</v>
+      </c>
+      <c r="V16" s="3">
+        <v>71.66</v>
+      </c>
+      <c r="W16" s="3">
+        <v>72.23</v>
+      </c>
+      <c r="X16" s="3">
+        <v>72.56</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>73.17</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>73.37</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>73.41</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>74.92</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>75.55</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>75</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="B18" s="5" t="s">
-        <v>52</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>